--- a/rts_test.xlsx
+++ b/rts_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arthu\Documents\GitHub\RTS_Upload_Manager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4259F5CC-D8F5-4479-B2D2-2F906B42B7F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{122F8BD1-F027-484F-B052-F20E3E013BF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{99D9E3DC-BC6B-45E7-A168-856168D82992}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="33">
   <si>
     <t>ClientNo</t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>COMPANY 15</t>
+  </si>
+  <si>
+    <t>InvAmt</t>
   </si>
 </sst>
 </file>
@@ -681,9 +684,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7978454E-2600-4718-9BA0-D42F0317F5EC}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -715,7 +716,7 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">

--- a/rts_test.xlsx
+++ b/rts_test.xlsx
@@ -862,4 +862,254 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003820C8D89FBC5A498EDCF2655CC36A3C" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3e57a22a07fc9c6068ef62b60b9a1381">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ca98ee16-d931-4edf-a6e2-f59632da0e93" xmlns:ns3="e0fc93d9-99b7-46c9-8e7b-843b4478b5a8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="45d5d35344668c8a3e510337905a14ef" ns2:_="" ns3:_="">
+    <xsd:import namespace="ca98ee16-d931-4edf-a6e2-f59632da0e93"/>
+    <xsd:import namespace="e0fc93d9-99b7-46c9-8e7b-843b4478b5a8"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="ca98ee16-d931-4edf-a6e2-f59632da0e93" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="12" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="13" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="17" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="18" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="e0fc93d9-99b7-46c9-8e7b-843b4478b5a8" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="19" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="20" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{202EAAF0-6FCC-4D20-ADFA-29F71E3F403C}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5021956-5F89-41FA-9749-1D73B24CE500}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B4E85E6-BD78-49A7-87E7-DBF5E5D4C01E}"/>
 </file>
--- a/rts_test.xlsx
+++ b/rts_test.xlsx
@@ -865,8 +865,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003820C8D89FBC5A498EDCF2655CC36A3C" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3e57a22a07fc9c6068ef62b60b9a1381">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ca98ee16-d931-4edf-a6e2-f59632da0e93" xmlns:ns3="e0fc93d9-99b7-46c9-8e7b-843b4478b5a8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="45d5d35344668c8a3e510337905a14ef" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003820C8D89FBC5A498EDCF2655CC36A3C" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e2f4afb9c099ce9358e40b68f74e5b75">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ca98ee16-d931-4edf-a6e2-f59632da0e93" xmlns:ns3="e0fc93d9-99b7-46c9-8e7b-843b4478b5a8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="559ef355ff75f9112597f82acb83b0dd" ns2:_="" ns3:_="">
     <xsd:import namespace="ca98ee16-d931-4edf-a6e2-f59632da0e93"/>
     <xsd:import namespace="e0fc93d9-99b7-46c9-8e7b-843b4478b5a8"/>
     <xsd:element name="properties">
@@ -888,6 +888,8 @@
                 <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -956,6 +958,13 @@
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="22" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="3acfe6f2-be93-4c7f-9421-ad7279aac1a0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="e0fc93d9-99b7-46c9-8e7b-843b4478b5a8" elementFormDefault="qualified">
@@ -986,6 +995,17 @@
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="23" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{d6196849-25f3-4b2d-9ad6-21140e912db7}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="e0fc93d9-99b7-46c9-8e7b-843b4478b5a8">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -1098,12 +1118,17 @@
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ca98ee16-d931-4edf-a6e2-f59632da0e93">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="e0fc93d9-99b7-46c9-8e7b-843b4478b5a8" xsi:nil="true"/>
+  </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{202EAAF0-6FCC-4D20-ADFA-29F71E3F403C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{600FA1CA-9E11-42A4-9E3D-EF7AA892306A}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
